--- a/branches/StructureDefinition-be-intended-performer.xlsx
+++ b/branches/StructureDefinition-be-intended-performer.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-08T09:35:25+00:00</t>
+    <t>2022-02-08T10:01:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-intended-performer.xlsx
+++ b/branches/StructureDefinition-be-intended-performer.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-08T10:01:45+00:00</t>
+    <t>2022-02-08T10:08:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-intended-performer.xlsx
+++ b/branches/StructureDefinition-be-intended-performer.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-08T10:08:35+00:00</t>
+    <t>2022-02-08T13:47:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-intended-performer.xlsx
+++ b/branches/StructureDefinition-be-intended-performer.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-08T13:47:48+00:00</t>
+    <t>2022-02-08T14:21:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-intended-performer.xlsx
+++ b/branches/StructureDefinition-be-intended-performer.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-08T14:21:10+00:00</t>
+    <t>2022-02-10T10:05:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-intended-performer.xlsx
+++ b/branches/StructureDefinition-be-intended-performer.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-10T10:05:03+00:00</t>
+    <t>2022-02-10T10:07:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-intended-performer.xlsx
+++ b/branches/StructureDefinition-be-intended-performer.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-10T10:07:35+00:00</t>
+    <t>2022-02-10T10:17:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-intended-performer.xlsx
+++ b/branches/StructureDefinition-be-intended-performer.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-10T10:17:28+00:00</t>
+    <t>2022-02-10T10:18:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-intended-performer.xlsx
+++ b/branches/StructureDefinition-be-intended-performer.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-10T10:18:13+00:00</t>
+    <t>2022-02-10T14:14:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-intended-performer.xlsx
+++ b/branches/StructureDefinition-be-intended-performer.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-10T14:14:34+00:00</t>
+    <t>2022-02-10T14:16:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-intended-performer.xlsx
+++ b/branches/StructureDefinition-be-intended-performer.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-10T14:16:39+00:00</t>
+    <t>2022-02-14T08:27:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-intended-performer.xlsx
+++ b/branches/StructureDefinition-be-intended-performer.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-14T08:27:15+00:00</t>
+    <t>2022-02-14T08:33:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-intended-performer.xlsx
+++ b/branches/StructureDefinition-be-intended-performer.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-14T08:33:39+00:00</t>
+    <t>2022-02-14T09:12:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-intended-performer.xlsx
+++ b/branches/StructureDefinition-be-intended-performer.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-14T09:12:03+00:00</t>
+    <t>2022-02-14T09:13:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-intended-performer.xlsx
+++ b/branches/StructureDefinition-be-intended-performer.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-14T09:13:01+00:00</t>
+    <t>2022-02-14T10:40:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-intended-performer.xlsx
+++ b/branches/StructureDefinition-be-intended-performer.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-14T10:40:00+00:00</t>
+    <t>2022-02-14T10:44:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-intended-performer.xlsx
+++ b/branches/StructureDefinition-be-intended-performer.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-14T10:44:55+00:00</t>
+    <t>2022-02-14T11:05:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-intended-performer.xlsx
+++ b/branches/StructureDefinition-be-intended-performer.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-14T11:05:09+00:00</t>
+    <t>2022-02-14T11:05:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-intended-performer.xlsx
+++ b/branches/StructureDefinition-be-intended-performer.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-14T11:05:42+00:00</t>
+    <t>2022-02-17T07:59:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-intended-performer.xlsx
+++ b/branches/StructureDefinition-be-intended-performer.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-17T07:59:14+00:00</t>
+    <t>2022-02-17T07:59:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-intended-performer.xlsx
+++ b/branches/StructureDefinition-be-intended-performer.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-17T07:59:49+00:00</t>
+    <t>2022-02-17T10:42:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-intended-performer.xlsx
+++ b/branches/StructureDefinition-be-intended-performer.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-17T10:42:28+00:00</t>
+    <t>2022-02-17T10:42:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-intended-performer.xlsx
+++ b/branches/StructureDefinition-be-intended-performer.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-17T10:42:34+00:00</t>
+    <t>2022-02-22T14:45:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-intended-performer.xlsx
+++ b/branches/StructureDefinition-be-intended-performer.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T14:45:52+00:00</t>
+    <t>2022-02-22T16:17:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-intended-performer.xlsx
+++ b/branches/StructureDefinition-be-intended-performer.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T16:17:43+00:00</t>
+    <t>2022-02-22T16:23:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-intended-performer.xlsx
+++ b/branches/StructureDefinition-be-intended-performer.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T16:23:19+00:00</t>
+    <t>2022-02-23T09:46:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-intended-performer.xlsx
+++ b/branches/StructureDefinition-be-intended-performer.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-23T09:46:03+00:00</t>
+    <t>2022-02-23T15:29:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-intended-performer.xlsx
+++ b/branches/StructureDefinition-be-intended-performer.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-23T15:29:02+00:00</t>
+    <t>2022-02-23T15:34:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-intended-performer.xlsx
+++ b/branches/StructureDefinition-be-intended-performer.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-23T15:34:51+00:00</t>
+    <t>2022-03-02T14:57:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-intended-performer.xlsx
+++ b/branches/StructureDefinition-be-intended-performer.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-02T14:57:26+00:00</t>
+    <t>2022-03-23T15:53:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-intended-performer.xlsx
+++ b/branches/StructureDefinition-be-intended-performer.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-intended-performer</t>
+    <t>https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-intended-performer</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T15:53:34+00:00</t>
+    <t>2022-05-03T10:04:16+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -355,7 +355,7 @@
     <t>Extension.extension.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CareTeam|HealthcareService|Device|RelatedPerson|https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-practitioner|https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-practitionerrole|https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-patient|https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-organization)
+    <t xml:space="preserve">Reference(CareTeam|HealthcareService|Device|RelatedPerson|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-practitioner|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-practitionerrole|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-patient|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-organization)
 </t>
   </si>
   <si>

--- a/branches/StructureDefinition-be-intended-performer.xlsx
+++ b/branches/StructureDefinition-be-intended-performer.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AJ$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AJ$29</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="127">
   <si>
     <t>Property</t>
   </si>
@@ -282,21 +282,11 @@
     <t>Extension.extension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+    <t>An Extension</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
@@ -321,9 +311,6 @@
     <t>Reference to performer</t>
   </si>
   <si>
-    <t>An Extension</t>
-  </si>
-  <si>
     <t>Extension.extension.id</t>
   </si>
   <si>
@@ -396,6 +383,30 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/performer-role</t>
+  </si>
+  <si>
+    <t>organization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-organization)
+</t>
+  </si>
+  <si>
+    <t>valueReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference
+</t>
+  </si>
+  <si>
+    <t>period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>valuePeriod</t>
   </si>
   <si>
     <t>base64Binary
@@ -735,7 +746,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ17"/>
+  <dimension ref="A1:AJ29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -746,7 +757,7 @@
   <cols>
     <col min="1" max="1" width="29.1484375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="22.25" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
@@ -754,7 +765,7 @@
     <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="44.2578125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="37.171875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1098,11 +1109,11 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F4" t="s" s="2">
         <v>76</v>
@@ -1117,17 +1128,15 @@
         <v>74</v>
       </c>
       <c r="J4" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K4" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="K4" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="M4" t="s" s="2">
-        <v>91</v>
-      </c>
+      <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
         <v>74</v>
@@ -1164,19 +1173,19 @@
         <v>74</v>
       </c>
       <c r="AA4" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AB4" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AC4" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD4" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AE4" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="AB4" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AC4" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD4" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AE4" t="s" s="2">
-        <v>95</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>75</v>
@@ -1191,7 +1200,7 @@
         <v>78</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5">
@@ -1199,7 +1208,7 @@
         <v>86</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C5" t="s" s="2">
         <v>74</v>
@@ -1212,7 +1221,7 @@
         <v>80</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>74</v>
@@ -1221,13 +1230,13 @@
         <v>74</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K5" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="K5" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="L5" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1278,7 +1287,7 @@
         <v>74</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>75</v>
@@ -1298,7 +1307,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1398,7 +1407,7 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1421,13 +1430,13 @@
         <v>74</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K7" t="s" s="2">
         <v>29</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1466,19 +1475,19 @@
         <v>74</v>
       </c>
       <c r="AA7" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AB7" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AC7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD7" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AE7" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="AB7" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AC7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD7" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AE7" t="s" s="2">
-        <v>95</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>75</v>
@@ -1498,7 +1507,7 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1521,16 +1530,16 @@
         <v>74</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -1538,7 +1547,7 @@
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="R8" t="s" s="2">
         <v>74</v>
@@ -1580,7 +1589,7 @@
         <v>74</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>80</v>
@@ -1595,12 +1604,12 @@
         <v>74</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1623,13 +1632,13 @@
         <v>74</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1680,7 +1689,7 @@
         <v>74</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>75</v>
@@ -1692,10 +1701,10 @@
         <v>74</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10">
@@ -1703,20 +1712,20 @@
         <v>86</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>74</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F10" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>74</v>
@@ -1725,13 +1734,13 @@
         <v>74</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K10" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="K10" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="L10" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1782,7 +1791,7 @@
         <v>74</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>75</v>
@@ -1802,7 +1811,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1902,7 +1911,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1925,13 +1934,13 @@
         <v>74</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K12" t="s" s="2">
         <v>29</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1970,19 +1979,19 @@
         <v>74</v>
       </c>
       <c r="AA12" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AE12" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>95</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>75</v>
@@ -2002,7 +2011,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2025,16 +2034,16 @@
         <v>74</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2042,7 +2051,7 @@
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="R13" t="s" s="2">
         <v>74</v>
@@ -2084,7 +2093,7 @@
         <v>74</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>80</v>
@@ -2099,12 +2108,12 @@
         <v>74</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2112,7 +2121,7 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>80</v>
@@ -2127,13 +2136,13 @@
         <v>74</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2172,17 +2181,17 @@
         <v>74</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="AB14" s="2"/>
       <c r="AC14" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>75</v>
@@ -2194,25 +2203,25 @@
         <v>74</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>74</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>80</v>
@@ -2227,13 +2236,13 @@
         <v>74</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2260,11 +2269,11 @@
         <v>74</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="X15" s="2"/>
       <c r="Y15" t="s" s="2">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>74</v>
@@ -2282,7 +2291,7 @@
         <v>74</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>75</v>
@@ -2294,29 +2303,31 @@
         <v>74</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="16" hidden="true">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="B16" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>119</v>
+      </c>
       <c r="C16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>74</v>
@@ -2325,24 +2336,22 @@
         <v>74</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>104</v>
+        <v>29</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>106</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>3</v>
+        <v>74</v>
       </c>
       <c r="R16" t="s" s="2">
         <v>74</v>
@@ -2384,27 +2393,27 @@
         <v>74</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>108</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2415,7 +2424,7 @@
         <v>75</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>74</v>
@@ -2427,13 +2436,13 @@
         <v>74</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2484,7 +2493,7 @@
         <v>74</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>75</v>
@@ -2496,14 +2505,1222 @@
         <v>74</v>
       </c>
       <c r="AI17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" hidden="true">
+      <c r="A18" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J18" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P18" s="2"/>
+      <c r="Q18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" hidden="true">
+      <c r="A19" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J19" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P19" s="2"/>
+      <c r="Q19" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="R19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" hidden="true">
+      <c r="A20" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J20" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P20" s="2"/>
+      <c r="Q20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA20" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="AJ17" t="s" s="2">
+      <c r="AB20" s="2"/>
+      <c r="AC20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" hidden="true">
+      <c r="A21" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J21" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>108</v>
       </c>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P21" s="2"/>
+      <c r="Q21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="C22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J22" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K22" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P22" s="2"/>
+      <c r="Q22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" hidden="true">
+      <c r="A23" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P23" s="2"/>
+      <c r="Q23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" hidden="true">
+      <c r="A24" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J24" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K24" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P24" s="2"/>
+      <c r="Q24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AF24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" hidden="true">
+      <c r="A25" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J25" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K25" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="N25" s="2"/>
+      <c r="O25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P25" s="2"/>
+      <c r="Q25" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="R25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" hidden="true">
+      <c r="A26" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J26" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="K26" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P26" s="2"/>
+      <c r="Q26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AB26" s="2"/>
+      <c r="AC26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" hidden="true">
+      <c r="A27" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="C27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J27" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="K27" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P27" s="2"/>
+      <c r="Q27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" hidden="true">
+      <c r="A28" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J28" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K28" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P28" s="2"/>
+      <c r="Q28" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="R28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" hidden="true">
+      <c r="A29" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F29" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J29" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="K29" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P29" s="2"/>
+      <c r="Q29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>104</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AJ17">
+  <autoFilter ref="A1:AJ29">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -2513,7 +3730,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI16">
+  <conditionalFormatting sqref="A2:AI28">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/branches/StructureDefinition-be-intended-performer.xlsx
+++ b/branches/StructureDefinition-be-intended-performer.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="129">
   <si>
     <t>Property</t>
   </si>
@@ -388,6 +388,9 @@
     <t>organization</t>
   </si>
   <si>
+    <t>Organization of the performer</t>
+  </si>
+  <si>
     <t xml:space="preserve">Reference(https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-organization)
 </t>
   </si>
@@ -400,6 +403,9 @@
   </si>
   <si>
     <t>period</t>
+  </si>
+  <si>
+    <t>Start and end of assignment of performer</t>
   </si>
   <si>
     <t xml:space="preserve">Period
@@ -765,7 +771,7 @@
     <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="37.171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="39.3515625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2339,7 +2345,7 @@
         <v>87</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>29</v>
+        <v>120</v>
       </c>
       <c r="L16" t="s" s="2">
         <v>88</v>
@@ -2738,7 +2744,7 @@
         <v>74</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K20" t="s" s="2">
         <v>107</v>
@@ -2816,7 +2822,7 @@
         <v>105</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>74</v>
@@ -2838,7 +2844,7 @@
         <v>74</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K21" t="s" s="2">
         <v>107</v>
@@ -2918,7 +2924,7 @@
         <v>86</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C22" t="s" s="2">
         <v>74</v>
@@ -2943,7 +2949,7 @@
         <v>87</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>29</v>
+        <v>125</v>
       </c>
       <c r="L22" t="s" s="2">
         <v>88</v>
@@ -3257,7 +3263,7 @@
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="R25" t="s" s="2">
         <v>74</v>
@@ -3342,7 +3348,7 @@
         <v>74</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K26" t="s" s="2">
         <v>107</v>
@@ -3420,7 +3426,7 @@
         <v>105</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C27" t="s" s="2">
         <v>74</v>
@@ -3442,7 +3448,7 @@
         <v>74</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K27" t="s" s="2">
         <v>107</v>
@@ -3644,7 +3650,7 @@
         <v>74</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K29" t="s" s="2">
         <v>107</v>

--- a/branches/StructureDefinition-be-intended-performer.xlsx
+++ b/branches/StructureDefinition-be-intended-performer.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AJ$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AJ$17</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="124">
   <si>
     <t>Property</t>
   </si>
@@ -282,11 +282,21 @@
     <t>Extension.extension</t>
   </si>
   <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>An Extension</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
@@ -311,6 +321,9 @@
     <t>Reference to performer</t>
   </si>
   <si>
+    <t>An Extension</t>
+  </si>
+  <si>
     <t>Extension.extension.id</t>
   </si>
   <si>
@@ -383,36 +396,6 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/performer-role</t>
-  </si>
-  <si>
-    <t>organization</t>
-  </si>
-  <si>
-    <t>Organization of the performer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-organization)
-</t>
-  </si>
-  <si>
-    <t>valueReference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference
-</t>
-  </si>
-  <si>
-    <t>period</t>
-  </si>
-  <si>
-    <t>Start and end of assignment of performer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>valuePeriod</t>
   </si>
   <si>
     <t>base64Binary
@@ -752,7 +735,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ29"/>
+  <dimension ref="A1:AJ17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -762,41 +745,41 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="29.1484375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="22.25" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="2" max="2" width="22.25390625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="39.3515625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="44.26171875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="21.5703125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="39.63671875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="21.57421875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="39.640625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="18.18359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="24.9765625" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="24.98046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1115,11 +1098,11 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F4" t="s" s="2">
         <v>76</v>
@@ -1134,15 +1117,17 @@
         <v>74</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="M4" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="M4" t="s" s="2">
+        <v>91</v>
+      </c>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
         <v>74</v>
@@ -1179,19 +1164,19 @@
         <v>74</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="AC4" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>75</v>
@@ -1206,7 +1191,7 @@
         <v>78</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5">
@@ -1214,7 +1199,7 @@
         <v>86</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C5" t="s" s="2">
         <v>74</v>
@@ -1227,7 +1212,7 @@
         <v>80</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>74</v>
@@ -1236,13 +1221,13 @@
         <v>74</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1293,7 +1278,7 @@
         <v>74</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>75</v>
@@ -1313,7 +1298,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1413,7 +1398,7 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1436,13 +1421,13 @@
         <v>74</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K7" t="s" s="2">
         <v>29</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1481,19 +1466,19 @@
         <v>74</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="AC7" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>75</v>
@@ -1513,7 +1498,7 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1536,16 +1521,16 @@
         <v>74</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -1553,7 +1538,7 @@
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="R8" t="s" s="2">
         <v>74</v>
@@ -1595,7 +1580,7 @@
         <v>74</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>80</v>
@@ -1610,12 +1595,12 @@
         <v>74</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1638,13 +1623,13 @@
         <v>74</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1695,7 +1680,7 @@
         <v>74</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>75</v>
@@ -1707,10 +1692,10 @@
         <v>74</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10">
@@ -1718,20 +1703,20 @@
         <v>86</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>74</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F10" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>74</v>
@@ -1740,13 +1725,13 @@
         <v>74</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1797,7 +1782,7 @@
         <v>74</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>75</v>
@@ -1817,7 +1802,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1917,7 +1902,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1940,13 +1925,13 @@
         <v>74</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K12" t="s" s="2">
         <v>29</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1985,19 +1970,19 @@
         <v>74</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="AC12" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>75</v>
@@ -2017,7 +2002,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2040,16 +2025,16 @@
         <v>74</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2057,7 +2042,7 @@
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="R13" t="s" s="2">
         <v>74</v>
@@ -2099,7 +2084,7 @@
         <v>74</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>80</v>
@@ -2114,12 +2099,12 @@
         <v>74</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2127,7 +2112,7 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>80</v>
@@ -2142,13 +2127,13 @@
         <v>74</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2187,17 +2172,17 @@
         <v>74</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AB14" s="2"/>
       <c r="AC14" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>75</v>
@@ -2209,25 +2194,25 @@
         <v>74</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>74</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>80</v>
@@ -2242,13 +2227,13 @@
         <v>74</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2275,11 +2260,11 @@
         <v>74</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="X15" s="2"/>
       <c r="Y15" t="s" s="2">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>74</v>
@@ -2297,7 +2282,7 @@
         <v>74</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>75</v>
@@ -2309,31 +2294,29 @@
         <v>74</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>119</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>74</v>
@@ -2342,22 +2325,24 @@
         <v>74</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="M16" s="2"/>
+        <v>105</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>106</v>
+      </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>74</v>
+        <v>3</v>
       </c>
       <c r="R16" t="s" s="2">
         <v>74</v>
@@ -2399,27 +2384,27 @@
         <v>74</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>74</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2430,7 +2415,7 @@
         <v>75</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>74</v>
@@ -2442,13 +2427,13 @@
         <v>74</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>81</v>
+        <v>123</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2499,7 +2484,7 @@
         <v>74</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>75</v>
@@ -2511,1222 +2496,14 @@
         <v>74</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="18" hidden="true">
-      <c r="A18" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J18" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K18" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P18" s="2"/>
-      <c r="Q18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" hidden="true">
-      <c r="A19" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="F19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J19" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="K19" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N19" s="2"/>
-      <c r="O19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P19" s="2"/>
-      <c r="Q19" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="R19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="20" hidden="true">
-      <c r="A20" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F20" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J20" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="K20" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="L20" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P20" s="2"/>
-      <c r="Q20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AB20" s="2"/>
-      <c r="AC20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="21" hidden="true">
-      <c r="A21" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="C21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J21" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="K21" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P21" s="2"/>
-      <c r="Q21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="C22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G22" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="H22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J22" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K22" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P22" s="2"/>
-      <c r="Q22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23" hidden="true">
-      <c r="A23" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P23" s="2"/>
-      <c r="Q23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="24" hidden="true">
-      <c r="A24" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D24" s="2"/>
-      <c r="E24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J24" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K24" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P24" s="2"/>
-      <c r="Q24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="25" hidden="true">
-      <c r="A25" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="E25" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="F25" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J25" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="K25" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N25" s="2"/>
-      <c r="O25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P25" s="2"/>
-      <c r="Q25" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="R25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="26" hidden="true">
-      <c r="A26" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D26" s="2"/>
-      <c r="E26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J26" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="K26" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P26" s="2"/>
-      <c r="Q26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AB26" s="2"/>
-      <c r="AC26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="AF26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="27" hidden="true">
-      <c r="A27" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="C27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="E27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F27" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J27" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="K27" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P27" s="2"/>
-      <c r="Q27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="28" hidden="true">
-      <c r="A28" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="E28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="F28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J28" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="K28" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N28" s="2"/>
-      <c r="O28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P28" s="2"/>
-      <c r="Q28" t="s" s="2">
-        <v>3</v>
-      </c>
-      <c r="R28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="29" hidden="true">
-      <c r="A29" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D29" s="2"/>
-      <c r="E29" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F29" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J29" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="K29" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P29" s="2"/>
-      <c r="Q29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>104</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AJ29">
+  <autoFilter ref="A1:AJ17">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -3736,7 +2513,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI28">
+  <conditionalFormatting sqref="A2:AI16">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/branches/StructureDefinition-be-intended-performer.xlsx
+++ b/branches/StructureDefinition-be-intended-performer.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AJ$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$17</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="137">
   <si>
     <t>Property</t>
   </si>
@@ -132,6 +132,9 @@
     <t>element:Element</t>
   </si>
   <si>
+    <t>ID</t>
+  </si>
+  <si>
     <t>Path</t>
   </si>
   <si>
@@ -247,69 +250,76 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
+    <t>Extension.id</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Extension.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>Extension.id</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Extension.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
+    <t>Extension.extension:actor</t>
   </si>
   <si>
     <t>actor</t>
@@ -324,10 +334,19 @@
     <t>An Extension</t>
   </si>
   <si>
+    <t>Extension.extension:actor.id</t>
+  </si>
+  <si>
     <t>Extension.extension.id</t>
   </si>
   <si>
+    <t>Extension.extension:actor.extension</t>
+  </si>
+  <si>
     <t>Extension.extension.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:actor.url</t>
   </si>
   <si>
     <t>Extension.extension.url</t>
@@ -352,6 +371,9 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Extension.extension:actor.value[x]</t>
+  </si>
+  <si>
     <t>Extension.extension.value[x]</t>
   </si>
   <si>
@@ -372,10 +394,25 @@
 </t>
   </si>
   <si>
+    <t>Extension.extension:role</t>
+  </si>
+  <si>
     <t>role</t>
   </si>
   <si>
     <t>Role of performer</t>
+  </si>
+  <si>
+    <t>Extension.extension:role.id</t>
+  </si>
+  <si>
+    <t>Extension.extension:role.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:role.url</t>
+  </si>
+  <si>
+    <t>Extension.extension:role.value[x]</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept
@@ -387,6 +424,9 @@
   </si>
   <si>
     <t>closed</t>
+  </si>
+  <si>
+    <t>Extension.extension:role.value[x]:valueCodeableConcept</t>
   </si>
   <si>
     <t>valueCodeableConcept</t>
@@ -735,7 +775,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ17"/>
+  <dimension ref="A1:AK17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -744,42 +784,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="29.1484375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="22.25390625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="53.66015625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="29.1484375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="22.25390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="44.26171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.6640625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="39.640625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="39.640625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="24.98046875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="24.98046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -891,93 +931,96 @@
       <c r="AJ1" t="s" s="1">
         <v>73</v>
       </c>
+      <c r="AK1" t="s" s="1">
+        <v>74</v>
+      </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="B2" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K2" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L2" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="L2" t="s" s="2">
+      <c r="M2" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-      <c r="O2" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" t="s" s="2">
-        <v>74</v>
-      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE2" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF2" t="s" s="2">
         <v>29</v>
-      </c>
-      <c r="AF2" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>76</v>
@@ -986,38 +1029,41 @@
         <v>77</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="AK2" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="K3" t="s" s="2">
         <v>82</v>
@@ -1025,99 +1071,102 @@
       <c r="L3" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="M3" s="2"/>
+      <c r="M3" t="s" s="2">
+        <v>84</v>
+      </c>
       <c r="N3" s="2"/>
-      <c r="O3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" t="s" s="2">
-        <v>74</v>
-      </c>
+      <c r="O3" s="2"/>
+      <c r="P3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
+      </c>
+      <c r="AK3" t="s" s="2">
+        <v>86</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="B4" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="K4" t="s" s="2">
         <v>89</v>
@@ -1128,200 +1177,206 @@
       <c r="M4" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="N4" s="2"/>
-      <c r="O4" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P4" s="2"/>
-      <c r="Q4" t="s" s="2">
-        <v>74</v>
-      </c>
+      <c r="N4" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="O4" s="2"/>
+      <c r="P4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="AB4" t="s" s="2">
         <v>93</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="AE4" t="s" s="2">
         <v>95</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>97</v>
+      </c>
+      <c r="AK4" t="s" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H5" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="I5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K5" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="L5" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="M5" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q5" s="2"/>
+      <c r="R5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF5" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="C5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F5" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G5" t="s" s="2">
+      <c r="AG5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH5" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ5" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="H5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J5" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K5" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="L5" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P5" s="2"/>
-      <c r="Q5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE5" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AF5" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG5" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ5" t="s" s="2">
-        <v>74</v>
+      <c r="AK5" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="K6" t="s" s="2">
         <v>82</v>
@@ -1329,503 +1384,518 @@
       <c r="L6" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="M6" s="2"/>
+      <c r="M6" t="s" s="2">
+        <v>84</v>
+      </c>
       <c r="N6" s="2"/>
-      <c r="O6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P6" s="2"/>
-      <c r="Q6" t="s" s="2">
-        <v>74</v>
-      </c>
+      <c r="O6" s="2"/>
+      <c r="P6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
+      </c>
+      <c r="AK6" t="s" s="2">
+        <v>86</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="L7" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="M7" s="2"/>
+      <c r="M7" t="s" s="2">
+        <v>102</v>
+      </c>
       <c r="N7" s="2"/>
-      <c r="O7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P7" s="2"/>
-      <c r="Q7" t="s" s="2">
-        <v>74</v>
-      </c>
+      <c r="O7" s="2"/>
+      <c r="P7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="AB7" t="s" s="2">
         <v>93</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="AE7" t="s" s="2">
         <v>95</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N8" s="2"/>
-      <c r="O8" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P8" s="2"/>
-      <c r="Q8" t="s" s="2">
-        <v>96</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="N8" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="O8" s="2"/>
+      <c r="P8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>108</v>
+        <v>75</v>
+      </c>
+      <c r="AK8" t="s" s="2">
+        <v>114</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="M9" s="2"/>
+        <v>118</v>
+      </c>
+      <c r="M9" t="s" s="2">
+        <v>119</v>
+      </c>
       <c r="N9" s="2"/>
-      <c r="O9" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P9" s="2"/>
-      <c r="Q9" t="s" s="2">
-        <v>74</v>
-      </c>
+      <c r="O9" s="2"/>
+      <c r="P9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AI9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AK9" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="AJ9" t="s" s="2">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="10">
+    </row>
+    <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="D10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G10" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H10" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="I10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K10" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="M10" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q10" s="2"/>
+      <c r="R10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF10" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AG10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH10" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ10" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="H10" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I10" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J10" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K10" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="L10" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P10" s="2"/>
-      <c r="Q10" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R10" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S10" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T10" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U10" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V10" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W10" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X10" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y10" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z10" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA10" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB10" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC10" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD10" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE10" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AF10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH10" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI10" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ10" t="s" s="2">
-        <v>74</v>
+      <c r="AK10" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="K11" t="s" s="2">
         <v>82</v>
@@ -1833,677 +1903,698 @@
       <c r="L11" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="M11" s="2"/>
+      <c r="M11" t="s" s="2">
+        <v>84</v>
+      </c>
       <c r="N11" s="2"/>
-      <c r="O11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P11" s="2"/>
-      <c r="Q11" t="s" s="2">
-        <v>74</v>
-      </c>
+      <c r="O11" s="2"/>
+      <c r="P11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
+      </c>
+      <c r="AK11" t="s" s="2">
+        <v>86</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="L12" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="M12" s="2"/>
+      <c r="M12" t="s" s="2">
+        <v>102</v>
+      </c>
       <c r="N12" s="2"/>
-      <c r="O12" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P12" s="2"/>
-      <c r="Q12" t="s" s="2">
-        <v>74</v>
-      </c>
+      <c r="O12" s="2"/>
+      <c r="P12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="AB12" t="s" s="2">
         <v>93</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="AE12" t="s" s="2">
         <v>95</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
+      </c>
+      <c r="AK12" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N13" s="2"/>
-      <c r="O13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P13" s="2"/>
-      <c r="Q13" t="s" s="2">
-        <v>115</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="O13" s="2"/>
+      <c r="P13" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>74</v>
+        <v>123</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>108</v>
+        <v>75</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>114</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="M14" s="2"/>
+        <v>118</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>119</v>
+      </c>
       <c r="N14" s="2"/>
-      <c r="O14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P14" s="2"/>
-      <c r="Q14" t="s" s="2">
-        <v>74</v>
-      </c>
+      <c r="O14" s="2"/>
+      <c r="P14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="AB14" s="2"/>
-      <c r="AC14" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AC14" s="2"/>
       <c r="AD14" t="s" s="2">
-        <v>119</v>
+        <v>75</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AI14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AK14" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>108</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="B15" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="C15" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="D15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K15" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q15" s="2"/>
+      <c r="R15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X15" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="Y15" s="2"/>
+      <c r="Z15" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF15" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="C15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F15" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J15" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="K15" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P15" s="2"/>
-      <c r="Q15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W15" t="s" s="2">
+      <c r="AG15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="X15" s="2"/>
-      <c r="Y15" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="Z15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI15" t="s" s="2">
+      <c r="AK15" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>108</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N16" s="2"/>
-      <c r="O16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P16" s="2"/>
-      <c r="Q16" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="O16" s="2"/>
+      <c r="P16" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q16" s="2"/>
+      <c r="R16" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="R16" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="S16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>108</v>
+        <v>75</v>
+      </c>
+      <c r="AK16" t="s" s="2">
+        <v>114</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>123</v>
+        <v>75</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>111</v>
+        <v>136</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="M17" s="2"/>
+        <v>118</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>119</v>
+      </c>
       <c r="N17" s="2"/>
-      <c r="O17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P17" s="2"/>
-      <c r="Q17" t="s" s="2">
-        <v>74</v>
-      </c>
+      <c r="O17" s="2"/>
+      <c r="P17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AI17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AK17" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="AJ17" t="s" s="2">
-        <v>108</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AJ17">
+  <autoFilter ref="A1:AK17">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
